--- a/Data_Files/Akshit Report 18th and 19th.xlsx
+++ b/Data_Files/Akshit Report 18th and 19th.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\Sklearn_And_Python_For_Interview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\Sklearn_And_Python_For_Interview\Data_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF7757F-D2EA-497E-AF30-9C80E0AA11E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AC34EC-E381-465C-964C-41C9F65DFE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
